--- a/3ekonom/output_treg.xlsx
+++ b/3ekonom/output_treg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreyA\Desktop\Сессия\DIPLOM\3ekonom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA54A7B-DD90-4ACC-BB4C-8292752EB921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9592A9-E7BB-4D5E-AA5B-B68E8F15D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
   <si>
     <t>cars0</t>
   </si>
@@ -46,16 +46,139 @@
     <t>N_rr</t>
   </si>
   <si>
-    <t>N_vr</t>
-  </si>
-  <si>
-    <t>N_mon</t>
-  </si>
-  <si>
-    <t>N_rss</t>
-  </si>
-  <si>
-    <t>N_all</t>
+    <t>Lg_all_do_rec</t>
+  </si>
+  <si>
+    <t>all_quantity</t>
+  </si>
+  <si>
+    <t>T_to_1_do_rec</t>
+  </si>
+  <si>
+    <t>T_to_2_do_rec</t>
+  </si>
+  <si>
+    <t>T_tr_do_rec</t>
+  </si>
+  <si>
+    <t>T_all_do_rec</t>
+  </si>
+  <si>
+    <t>FZP_to_1_do_rec</t>
+  </si>
+  <si>
+    <t>FZP_to_2_do_rec</t>
+  </si>
+  <si>
+    <t>FZP_tr_do_rec</t>
+  </si>
+  <si>
+    <t>T_to_1</t>
+  </si>
+  <si>
+    <t>T_to_2</t>
+  </si>
+  <si>
+    <t>T_tr</t>
+  </si>
+  <si>
+    <t>T_all</t>
+  </si>
+  <si>
+    <t>FZP_to_1</t>
+  </si>
+  <si>
+    <t>FZP_to_2</t>
+  </si>
+  <si>
+    <t>FZP_tr</t>
+  </si>
+  <si>
+    <t>calendar_days</t>
+  </si>
+  <si>
+    <t>weekend_days</t>
+  </si>
+  <si>
+    <t>vacation_days</t>
+  </si>
+  <si>
+    <t>DZP_to1_do_rec</t>
+  </si>
+  <si>
+    <t>DZP_to2_do_rec</t>
+  </si>
+  <si>
+    <t>DZP_tr_do_rec</t>
+  </si>
+  <si>
+    <t>DZP_to1</t>
+  </si>
+  <si>
+    <t>DZP_to2</t>
+  </si>
+  <si>
+    <t>DZP_tr</t>
+  </si>
+  <si>
+    <t>OFZP_to1_do_rec</t>
+  </si>
+  <si>
+    <t>OFZP_to2_do_rec</t>
+  </si>
+  <si>
+    <t>OFZP_tr_do_rec</t>
+  </si>
+  <si>
+    <t>SOC_OTC_to1_do_rec</t>
+  </si>
+  <si>
+    <t>SOC_OTC_to2_do_rec</t>
+  </si>
+  <si>
+    <t>SOC_OTC_tr_do_rec</t>
+  </si>
+  <si>
+    <t>OFZP_all_with_otc_to1_do_rec</t>
+  </si>
+  <si>
+    <t>OFZP_all_with_otc_to2_do_rec</t>
+  </si>
+  <si>
+    <t>OFZP_all_with_otc_tr_do_rec</t>
+  </si>
+  <si>
+    <t>OFZP_all_with_otc_all_do_rec</t>
+  </si>
+  <si>
+    <t>OFZP_to1</t>
+  </si>
+  <si>
+    <t>OFZP_to2</t>
+  </si>
+  <si>
+    <t>OFZP_tr</t>
+  </si>
+  <si>
+    <t>SOC_OTC_to1</t>
+  </si>
+  <si>
+    <t>SOC_OTC_to2</t>
+  </si>
+  <si>
+    <t>SOC_OTC_tr</t>
+  </si>
+  <si>
+    <t>OFZP_all_with_otc_to1</t>
+  </si>
+  <si>
+    <t>OFZP_all_with_otc_to2</t>
+  </si>
+  <si>
+    <t>OFZP_all_with_otc_tr</t>
+  </si>
+  <si>
+    <t>OFZP_all_with_otc_all</t>
   </si>
   <si>
     <t>tarif_3_raz</t>
@@ -70,6 +193,51 @@
     <t>tarif_6_raz</t>
   </si>
   <si>
+    <t>workers_to_1_3_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_1_4_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_1_5_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_1_6_raz_do_rec</t>
+  </si>
+  <si>
+    <t>sred_tarif_to_1_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_2_3_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_2_4_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_2_5_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_2_6_raz_do_rec</t>
+  </si>
+  <si>
+    <t>sred_tarif_to_2_do_rec</t>
+  </si>
+  <si>
+    <t>workers_TR_3_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_TR_4_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_TR_5_raz_do_rec</t>
+  </si>
+  <si>
+    <t>workers_TR_6_raz_do_rec</t>
+  </si>
+  <si>
+    <t>sred_tarif_TR_do_rec</t>
+  </si>
+  <si>
     <t>workers_to_1_3_raz</t>
   </si>
   <si>
@@ -115,255 +283,48 @@
     <t>sred_tarif_TR</t>
   </si>
   <si>
-    <t>T_to_1</t>
-  </si>
-  <si>
-    <t>T_to_2</t>
-  </si>
-  <si>
-    <t>T_tr</t>
-  </si>
-  <si>
-    <t>FZP_to_1</t>
-  </si>
-  <si>
-    <t>FZP_to_2</t>
-  </si>
-  <si>
-    <t>FZP_tr</t>
-  </si>
-  <si>
-    <t>FZP_all</t>
-  </si>
-  <si>
-    <t>T_all</t>
-  </si>
-  <si>
-    <t>sred_tarif_rem_workers</t>
-  </si>
-  <si>
-    <t>Oklad_rss</t>
-  </si>
-  <si>
-    <t>ZP_rss</t>
-  </si>
-  <si>
-    <t>prize_rss</t>
-  </si>
-  <si>
-    <t>OZP_rss</t>
-  </si>
-  <si>
-    <t>vacation_days</t>
-  </si>
-  <si>
-    <t>calendar_days</t>
-  </si>
-  <si>
-    <t>weekend_days</t>
-  </si>
-  <si>
-    <t>DZP_rss</t>
-  </si>
-  <si>
-    <t>EPV_rss</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>FZP_rss</t>
-  </si>
-  <si>
-    <t>ZP_mouth_rss</t>
-  </si>
-  <si>
-    <t>OFZP_vrimon</t>
-  </si>
-  <si>
-    <t>ZP_vrimon_mes</t>
-  </si>
-  <si>
-    <t>OFZP_rss_vr_mon</t>
-  </si>
-  <si>
-    <t>SOC_OTC_rss_vr_mon</t>
-  </si>
-  <si>
-    <t>N_vred_to1</t>
-  </si>
-  <si>
-    <t>N_vred_to2</t>
-  </si>
-  <si>
-    <t>N_vred_tr</t>
-  </si>
-  <si>
-    <t>sred_tarif_to_1_mes</t>
-  </si>
-  <si>
-    <t>sred_tarif_to_2_mes</t>
-  </si>
-  <si>
-    <t>sred_tarif_tr_mes</t>
-  </si>
-  <si>
-    <t>D_vred_to1</t>
-  </si>
-  <si>
-    <t>D_vred_to2</t>
-  </si>
-  <si>
-    <t>D_vred_tr</t>
-  </si>
-  <si>
-    <t>N_vc</t>
-  </si>
-  <si>
-    <t>D_vc</t>
-  </si>
-  <si>
-    <t>D_ut_all</t>
-  </si>
-  <si>
-    <t>OFZP_tar</t>
-  </si>
-  <si>
-    <t>AH_r</t>
-  </si>
-  <si>
-    <t>C_cd</t>
-  </si>
-  <si>
-    <t>K_ud_to1</t>
-  </si>
-  <si>
-    <t>K_ud_to2</t>
-  </si>
-  <si>
-    <t>K_ud_tr</t>
-  </si>
-  <si>
-    <t>C_cd_to1</t>
-  </si>
-  <si>
-    <t>C_cd_to2</t>
-  </si>
-  <si>
-    <t>C_cd_tr</t>
-  </si>
-  <si>
-    <t>D_vred_all</t>
-  </si>
-  <si>
-    <t>ZP_cd_to1</t>
-  </si>
-  <si>
-    <t>ZP_cd_to2</t>
-  </si>
-  <si>
-    <t>ZP_cd_tr</t>
-  </si>
-  <si>
-    <t>ZP_cd_all</t>
-  </si>
-  <si>
-    <t>P_RFZP_to1</t>
-  </si>
-  <si>
-    <t>P_RFZP_to2</t>
-  </si>
-  <si>
-    <t>P_RFZP_tr</t>
-  </si>
-  <si>
-    <t>C_rr_sred</t>
-  </si>
-  <si>
-    <t>K_d</t>
-  </si>
-  <si>
-    <t>D_vc_to1</t>
-  </si>
-  <si>
-    <t>D_vc_to2</t>
-  </si>
-  <si>
-    <t>D_vc_tr</t>
-  </si>
-  <si>
-    <t>OZP_to1</t>
-  </si>
-  <si>
-    <t>OZP_to2</t>
-  </si>
-  <si>
-    <t>OZP_tr</t>
-  </si>
-  <si>
-    <t>DZP_to1</t>
-  </si>
-  <si>
-    <t>DZP_to2</t>
-  </si>
-  <si>
-    <t>DZP_tr</t>
-  </si>
-  <si>
-    <t>OFZP_to1</t>
-  </si>
-  <si>
-    <t>OFZP_to2</t>
-  </si>
-  <si>
-    <t>OFZP_tr</t>
-  </si>
-  <si>
-    <t>SOC_OTC_to1</t>
-  </si>
-  <si>
-    <t>SOC_OTC_to2</t>
-  </si>
-  <si>
-    <t>SOC_OTC_tr</t>
-  </si>
-  <si>
-    <t>OFZP_all_with_otc_to1</t>
-  </si>
-  <si>
-    <t>OFZP_all_with_otc_to2</t>
-  </si>
-  <si>
-    <t>OFZP_all_with_otc_tr</t>
-  </si>
-  <si>
     <t>norma_z_mat_to10</t>
   </si>
   <si>
     <t>norma_z_mat_to20</t>
   </si>
   <si>
+    <t>Z_mat_to_1_do_rec0</t>
+  </si>
+  <si>
+    <t>Z_mat_to_2_do_rec0</t>
+  </si>
+  <si>
+    <t>Z_mat_to_10</t>
+  </si>
+  <si>
+    <t>Z_mat_to_20</t>
+  </si>
+  <si>
+    <t>L_g_do_rec0</t>
+  </si>
+  <si>
     <t>L_g0</t>
   </si>
   <si>
-    <t>Z_mat_to0</t>
-  </si>
-  <si>
     <t>norma_z_mat_tr0</t>
   </si>
   <si>
+    <t>Z_mat_tr_do_rec0</t>
+  </si>
+  <si>
     <t>Z_mat_tr0</t>
   </si>
   <si>
-    <t>Z_mat_to_tr0</t>
-  </si>
-  <si>
     <t>k_20</t>
   </si>
   <si>
     <t>norma_z_zch0</t>
   </si>
   <si>
+    <t>Z_zch_do_rec0</t>
+  </si>
+  <si>
     <t>Z_zch0</t>
   </si>
   <si>
@@ -373,27 +334,42 @@
     <t>norma_z_mat_to21</t>
   </si>
   <si>
+    <t>Z_mat_to_1_do_rec1</t>
+  </si>
+  <si>
+    <t>Z_mat_to_2_do_rec1</t>
+  </si>
+  <si>
+    <t>Z_mat_to_11</t>
+  </si>
+  <si>
+    <t>Z_mat_to_21</t>
+  </si>
+  <si>
+    <t>L_g_do_rec1</t>
+  </si>
+  <si>
     <t>L_g1</t>
   </si>
   <si>
-    <t>Z_mat_to1</t>
-  </si>
-  <si>
     <t>norma_z_mat_tr1</t>
   </si>
   <si>
+    <t>Z_mat_tr_do_rec1</t>
+  </si>
+  <si>
     <t>Z_mat_tr1</t>
   </si>
   <si>
-    <t>Z_mat_to_tr1</t>
-  </si>
-  <si>
     <t>k_21</t>
   </si>
   <si>
     <t>norma_z_zch1</t>
   </si>
   <si>
+    <t>Z_zch_do_rec1</t>
+  </si>
+  <si>
     <t>Z_zch1</t>
   </si>
   <si>
@@ -403,27 +379,42 @@
     <t>norma_z_mat_to22</t>
   </si>
   <si>
+    <t>Z_mat_to_1_do_rec2</t>
+  </si>
+  <si>
+    <t>Z_mat_to_2_do_rec2</t>
+  </si>
+  <si>
+    <t>Z_mat_to_12</t>
+  </si>
+  <si>
+    <t>Z_mat_to_22</t>
+  </si>
+  <si>
+    <t>L_g_do_rec2</t>
+  </si>
+  <si>
     <t>L_g2</t>
   </si>
   <si>
-    <t>Z_mat_to2</t>
-  </si>
-  <si>
     <t>norma_z_mat_tr2</t>
   </si>
   <si>
+    <t>Z_mat_tr_do_rec2</t>
+  </si>
+  <si>
     <t>Z_mat_tr2</t>
   </si>
   <si>
-    <t>Z_mat_to_tr2</t>
-  </si>
-  <si>
     <t>k_22</t>
   </si>
   <si>
     <t>norma_z_zch2</t>
   </si>
   <si>
+    <t>Z_zch_do_rec2</t>
+  </si>
+  <si>
     <t>Z_zch2</t>
   </si>
   <si>
@@ -433,100 +424,61 @@
     <t>norma_z_mat_to23</t>
   </si>
   <si>
+    <t>Z_mat_to_1_do_rec3</t>
+  </si>
+  <si>
+    <t>Z_mat_to_2_do_rec3</t>
+  </si>
+  <si>
+    <t>Z_mat_to_13</t>
+  </si>
+  <si>
+    <t>Z_mat_to_23</t>
+  </si>
+  <si>
+    <t>L_g_do_rec3</t>
+  </si>
+  <si>
     <t>L_g3</t>
   </si>
   <si>
-    <t>Z_mat_to3</t>
-  </si>
-  <si>
     <t>norma_z_mat_tr3</t>
   </si>
   <si>
+    <t>Z_mat_tr_do_rec3</t>
+  </si>
+  <si>
     <t>Z_mat_tr3</t>
   </si>
   <si>
-    <t>Z_mat_to_tr3</t>
-  </si>
-  <si>
     <t>k_23</t>
   </si>
   <si>
     <t>norma_z_zch3</t>
   </si>
   <si>
+    <t>Z_zch_do_rec3</t>
+  </si>
+  <si>
     <t>Z_zch3</t>
   </si>
   <si>
-    <t>day_job</t>
-  </si>
-  <si>
-    <t>P_hoz_bit</t>
-  </si>
-  <si>
-    <t>S_proizv_pom</t>
-  </si>
-  <si>
-    <t>H_mp</t>
-  </si>
-  <si>
-    <t>P_teh</t>
-  </si>
-  <si>
-    <t>P_teh_hoz_bit</t>
-  </si>
-  <si>
-    <t>C_1l</t>
-  </si>
-  <si>
-    <t>Z_voda</t>
-  </si>
-  <si>
-    <t>C_1k</t>
-  </si>
-  <si>
-    <t>Z_so</t>
-  </si>
-  <si>
-    <t>N_osv</t>
-  </si>
-  <si>
-    <t>t_osv</t>
-  </si>
-  <si>
-    <t>C_1kVt</t>
-  </si>
-  <si>
-    <t>Z_osv</t>
-  </si>
-  <si>
-    <t>N_k_v</t>
-  </si>
-  <si>
-    <t>T_sil</t>
-  </si>
-  <si>
-    <t>K_vr</t>
-  </si>
-  <si>
-    <t>Z_sil</t>
-  </si>
-  <si>
-    <t>H_teplo</t>
-  </si>
-  <si>
-    <t>C_1gkall</t>
-  </si>
-  <si>
-    <t>height_proizv_pom</t>
-  </si>
-  <si>
-    <t>V_proizv_pom</t>
-  </si>
-  <si>
-    <t>Z_teplo</t>
-  </si>
-  <si>
-    <t>Z_obh_hoz</t>
+    <t>Z_naklad_to_1_do_rec</t>
+  </si>
+  <si>
+    <t>Z_naklad_to_2_do_rec</t>
+  </si>
+  <si>
+    <t>Z_naklad_tr_do_rec</t>
+  </si>
+  <si>
+    <t>Z_naklad_to_1</t>
+  </si>
+  <si>
+    <t>Z_naklad_to_2</t>
+  </si>
+  <si>
+    <t>Z_naklad_tr</t>
   </si>
   <si>
     <t>k_1</t>
@@ -535,48 +487,12 @@
     <t>k_3</t>
   </si>
   <si>
-    <t>Z_mat_to_all</t>
-  </si>
-  <si>
     <t>Z_mat_tr_all</t>
   </si>
   <si>
-    <t>Z_mat_to_tr_all</t>
-  </si>
-  <si>
     <t>Z_zch_all</t>
   </si>
   <si>
-    <t>Z_mat_and_zch</t>
-  </si>
-  <si>
-    <t>Z_itogo</t>
-  </si>
-  <si>
-    <t>S_1_to</t>
-  </si>
-  <si>
-    <t>C_1_to</t>
-  </si>
-  <si>
-    <t>N_to</t>
-  </si>
-  <si>
-    <t>S_1_chel_tr</t>
-  </si>
-  <si>
-    <t>C_1_chel_tr</t>
-  </si>
-  <si>
-    <t>dohod_to</t>
-  </si>
-  <si>
-    <t>dohod_tr</t>
-  </si>
-  <si>
-    <t>dohod_all</t>
-  </si>
-  <si>
     <t>zatrati_na_new_oborud</t>
   </si>
   <si>
@@ -586,19 +502,52 @@
     <t>zatrati_na_new_oborud_with_mont</t>
   </si>
   <si>
-    <t>Zatrati_08</t>
-  </si>
-  <si>
-    <t>P_n</t>
-  </si>
-  <si>
-    <t>ONPp</t>
-  </si>
-  <si>
-    <t>P_ch</t>
-  </si>
-  <si>
-    <t>srok_okup</t>
+    <t>S_1_to_1_do_rec</t>
+  </si>
+  <si>
+    <t>S_1_to_1</t>
+  </si>
+  <si>
+    <t>P_cc_to_1</t>
+  </si>
+  <si>
+    <t>S_1_to_2_do_rec</t>
+  </si>
+  <si>
+    <t>S_1_to_2</t>
+  </si>
+  <si>
+    <t>P_cc_to_2</t>
+  </si>
+  <si>
+    <t>N_to_1</t>
+  </si>
+  <si>
+    <t>delta_C_to_1</t>
+  </si>
+  <si>
+    <t>N_to_2</t>
+  </si>
+  <si>
+    <t>delta_C_to_2</t>
+  </si>
+  <si>
+    <t>S_tr_on_1000km_do_rec</t>
+  </si>
+  <si>
+    <t>S_tr_on_1000km</t>
+  </si>
+  <si>
+    <t>delta_C_tr</t>
+  </si>
+  <si>
+    <t>delta_C_to_tr</t>
+  </si>
+  <si>
+    <t>T_okup</t>
+  </si>
+  <si>
+    <t>Lg_all</t>
   </si>
   <si>
     <t>T_sm</t>
@@ -984,15 +933,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GW2"/>
+  <dimension ref="A1:GD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="K19" sqref="K19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:186" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1468,61 +1417,61 @@
         <v>157</v>
       </c>
       <c r="FC1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="FD1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="FE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU1" t="s">
         <v>159</v>
-      </c>
-      <c r="FF1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN1" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO1" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>175</v>
       </c>
       <c r="FV1" t="s">
         <v>176</v>
@@ -1537,90 +1486,33 @@
         <v>179</v>
       </c>
       <c r="FZ1" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="GA1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="GB1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="GC1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="GD1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GE1" t="s">
         <v>184</v>
       </c>
-      <c r="GF1" t="s">
+    </row>
+    <row r="2" spans="1:186" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="B2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="C2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="D2" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="GJ1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GK1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GL1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GM1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GN1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GO1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GP1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GQ1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GR1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GS1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GT1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GU1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GV1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GW1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:205" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -1635,599 +1527,541 @@
         <v>40</v>
       </c>
       <c r="I2" s="1">
-        <v>11</v>
+        <v>7904529.1899999985</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="K2" s="1">
-        <v>10</v>
+        <v>48667.46</v>
       </c>
       <c r="L2" s="1">
-        <v>62</v>
+        <v>13446.15</v>
       </c>
       <c r="M2" s="1">
+        <v>19245.650000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>81359.260000000009</v>
+      </c>
+      <c r="O2" s="1">
+        <v>13403894.5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>3703311.74</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5300598.43</v>
+      </c>
+      <c r="R2" s="1">
+        <v>11202.16</v>
+      </c>
+      <c r="S2" s="1">
+        <v>17797.830000000002</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44914.559999999998</v>
+      </c>
+      <c r="U2" s="1">
+        <v>73914.55</v>
+      </c>
+      <c r="V2" s="1">
+        <v>3068271.62</v>
+      </c>
+      <c r="W2" s="1">
+        <v>5160267.2300000004</v>
+      </c>
+      <c r="X2" s="1">
+        <v>13035777.32</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>365</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>118</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2905277.63</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>802688.26</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>1148898.18</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>665044.09</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>1118481.57</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>2825488.68</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>16309172.130000001</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>4506000</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>6449496.6099999994</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>4892751.6399999997</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1351800</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>1934848.98</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>21201923.77</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>5857800</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>8384345.5899999999</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>35444069.359999999</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>3733315.71</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>6278748.8000000007</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>15861266</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1119994.71</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>1883624.64</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>4758379.8</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>4853310.42</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>8162373.4400000004</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>20619645.800000001</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>33635329.659999996</v>
+      </c>
+      <c r="BB2" s="1">
         <v>76.599999999999994</v>
       </c>
-      <c r="N2" s="1">
+      <c r="BC2" s="1">
         <v>80.400000000000006</v>
       </c>
-      <c r="O2" s="1">
+      <c r="BD2" s="1">
         <v>85.6</v>
       </c>
-      <c r="P2" s="1">
+      <c r="BE2" s="1">
         <v>91.25</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>3</v>
-      </c>
-      <c r="S2" s="1">
-        <v>3</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>83</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>87.86</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>14</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>87.95</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>11202.16</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>17797.830000000002</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>44914.559999999998</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>929779.28</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>1563717.34</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>3950235.55</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>6443732.1699999999</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>73914.55</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>87</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>17640</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>2116800</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>846720</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>2963520</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>44</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>365</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>118</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>642339.31000000006</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>59270.400000000001</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>7992160.8799999999</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>66601.34</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>1933119.65</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>13424.44</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>9925280.5299999993</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>2977584.16</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>1</v>
       </c>
       <c r="BF2" s="1">
         <v>1</v>
       </c>
       <c r="BG2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="1">
-        <v>14367.3</v>
+        <v>1</v>
       </c>
       <c r="BI2" s="1">
-        <v>15208.566000000001</v>
+        <v>1</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15224.145</v>
+        <v>83.46</v>
       </c>
       <c r="BK2" s="1">
-        <v>20688.91</v>
+        <v>1</v>
       </c>
       <c r="BL2" s="1">
-        <v>21900.34</v>
+        <v>1</v>
       </c>
       <c r="BM2" s="1">
-        <v>43845.54</v>
+        <v>1</v>
       </c>
       <c r="BN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>83.46</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>83.46</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
         <v>3</v>
       </c>
-      <c r="BO2" s="1">
-        <v>5220</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>91654.790000000008</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>16460667.49</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>775200</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>21.23</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>0.61</v>
-      </c>
       <c r="BW2" s="1">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="BX2" s="1">
-        <v>5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="BY2" s="1">
-        <v>12.95</v>
+        <v>83</v>
       </c>
       <c r="BZ2" s="1">
-        <v>86434.790000000008</v>
+        <v>0</v>
       </c>
       <c r="CA2" s="1">
-        <v>2302344</v>
+        <v>0</v>
       </c>
       <c r="CB2" s="1">
-        <v>3953520</v>
+        <v>6</v>
       </c>
       <c r="CC2" s="1">
-        <v>10038840</v>
+        <v>4</v>
       </c>
       <c r="CD2" s="1">
-        <v>16294704</v>
+        <v>87.86</v>
       </c>
       <c r="CE2" s="1">
-        <v>1151172</v>
+        <v>0</v>
       </c>
       <c r="CF2" s="1">
-        <v>1976760</v>
+        <v>0</v>
       </c>
       <c r="CG2" s="1">
-        <v>5019420</v>
+        <v>14</v>
       </c>
       <c r="CH2" s="1">
-        <v>88.17</v>
+        <v>10</v>
       </c>
       <c r="CI2" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>87.95</v>
       </c>
       <c r="CJ2" s="1">
-        <v>690.7</v>
+        <v>2200</v>
       </c>
       <c r="CK2" s="1">
-        <v>1186.06</v>
+        <v>2900</v>
       </c>
       <c r="CL2" s="1">
-        <v>3011.65</v>
+        <v>1674445.67</v>
       </c>
       <c r="CM2" s="1">
-        <v>3454206.7</v>
+        <v>2207223.84</v>
       </c>
       <c r="CN2" s="1">
-        <v>5931466.0599999996</v>
+        <v>1789850.3</v>
       </c>
       <c r="CO2" s="1">
-        <v>15061271.65</v>
+        <v>2359348.13</v>
       </c>
       <c r="CP2" s="1">
-        <v>748695.05</v>
+        <v>761111.67</v>
       </c>
       <c r="CQ2" s="1">
-        <v>1285637.96</v>
+        <v>813568.32000000007</v>
       </c>
       <c r="CR2" s="1">
-        <v>3264512.08</v>
+        <v>1600</v>
       </c>
       <c r="CS2" s="1">
-        <v>9246383.8499999996</v>
+        <v>1217778.67</v>
       </c>
       <c r="CT2" s="1">
-        <v>15877628.84</v>
+        <v>1301709.31</v>
       </c>
       <c r="CU2" s="1">
-        <v>40316724.210000001</v>
+        <v>1</v>
       </c>
       <c r="CV2" s="1">
-        <v>2773915.15</v>
+        <v>1650</v>
       </c>
       <c r="CW2" s="1">
-        <v>4763288.6500000004</v>
+        <v>1962241.02</v>
       </c>
       <c r="CX2" s="1">
-        <v>12095017.26</v>
+        <v>2097480.8199999998</v>
       </c>
       <c r="CY2" s="1">
-        <v>12020299</v>
+        <v>3050</v>
       </c>
       <c r="CZ2" s="1">
-        <v>20640917.489999998</v>
+        <v>4050</v>
       </c>
       <c r="DA2" s="1">
-        <v>52411741.469999999</v>
+        <v>7505927.3899999997</v>
       </c>
       <c r="DB2" s="1">
-        <v>2200</v>
+        <v>9966887.1899999995</v>
       </c>
       <c r="DC2" s="1">
-        <v>2900</v>
+        <v>8318614.9000000004</v>
       </c>
       <c r="DD2" s="1">
-        <v>813568.32000000007</v>
+        <v>11046029.619999999</v>
       </c>
       <c r="DE2" s="1">
-        <v>4149198.43</v>
+        <v>2460959.7999999998</v>
       </c>
       <c r="DF2" s="1">
-        <v>1600</v>
+        <v>2727414.72</v>
       </c>
       <c r="DG2" s="1">
-        <v>1301709.31</v>
+        <v>2300</v>
       </c>
       <c r="DH2" s="1">
-        <v>5450907.7400000002</v>
+        <v>5660207.54</v>
       </c>
       <c r="DI2" s="1">
+        <v>6273053.8600000003</v>
+      </c>
+      <c r="DJ2" s="1">
         <v>1</v>
       </c>
-      <c r="DJ2" s="1">
-        <v>1650</v>
-      </c>
       <c r="DK2" s="1">
-        <v>2097480.8199999998</v>
+        <v>2300</v>
       </c>
       <c r="DL2" s="1">
+        <v>8844074.2799999993</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>9801646.6500000004</v>
+      </c>
+      <c r="DN2" s="1">
         <v>3050</v>
       </c>
-      <c r="DM2" s="1">
+      <c r="DO2" s="1">
         <v>4050</v>
       </c>
-      <c r="DN2" s="1">
-        <v>2727414.72</v>
-      </c>
-      <c r="DO2" s="1">
-        <v>19364644.510000002</v>
-      </c>
       <c r="DP2" s="1">
+        <v>9466648.5600000005</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>12570467.76</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>11264557.68</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>14957855.279999999</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>3103819.2</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>3693297.6</v>
+      </c>
+      <c r="DV2" s="1">
         <v>2300</v>
       </c>
-      <c r="DQ2" s="1">
-        <v>6273053.8600000003</v>
-      </c>
-      <c r="DR2" s="1">
-        <v>25637698.370000001</v>
-      </c>
-      <c r="DS2" s="1">
-        <v>1</v>
-      </c>
-      <c r="DT2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="DU2" s="1">
-        <v>9801646.6500000004</v>
-      </c>
-      <c r="DV2" s="1">
-        <v>3050</v>
-      </c>
       <c r="DW2" s="1">
-        <v>4050</v>
+        <v>7138784.1600000001</v>
       </c>
       <c r="DX2" s="1">
-        <v>3693297.6</v>
+        <v>8494584.4800000004</v>
       </c>
       <c r="DY2" s="1">
-        <v>26222412.960000001</v>
+        <v>1.05</v>
       </c>
       <c r="DZ2" s="1">
         <v>2300</v>
       </c>
       <c r="EA2" s="1">
-        <v>8494584.4800000004</v>
+        <v>11712067.76</v>
       </c>
       <c r="EB2" s="1">
-        <v>34716997.439999998</v>
+        <v>13936427.66</v>
       </c>
       <c r="EC2" s="1">
-        <v>1.05</v>
+        <v>3050</v>
       </c>
       <c r="ED2" s="1">
+        <v>4050</v>
+      </c>
+      <c r="EE2" s="1">
+        <v>4814847.49</v>
+      </c>
+      <c r="EF2" s="1">
+        <v>6393486.0099999998</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>5200659.37</v>
+      </c>
+      <c r="EH2" s="1">
+        <v>6905793.5899999999</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>1578638.52</v>
+      </c>
+      <c r="EJ2" s="1">
+        <v>1705134.22</v>
+      </c>
+      <c r="EK2" s="1">
         <v>2300</v>
       </c>
-      <c r="EE2" s="1">
-        <v>13936427.66</v>
-      </c>
-      <c r="EF2" s="1">
-        <v>3050</v>
-      </c>
-      <c r="EG2" s="1">
-        <v>4050</v>
-      </c>
-      <c r="EH2" s="1">
-        <v>1705134.22</v>
-      </c>
-      <c r="EI2" s="1">
-        <v>12106452.960000001</v>
-      </c>
-      <c r="EJ2" s="1">
+      <c r="EL2" s="1">
+        <v>3630868.6</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>3921808.71</v>
+      </c>
+      <c r="EN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="EO2" s="1">
         <v>2300</v>
       </c>
-      <c r="EK2" s="1">
-        <v>3921808.71</v>
-      </c>
-      <c r="EL2" s="1">
-        <v>16028261.67</v>
-      </c>
-      <c r="EM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="EN2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="EO2" s="1">
+      <c r="EP2" s="1">
+        <v>5673232.1799999997</v>
+      </c>
+      <c r="EQ2" s="1">
         <v>6127826.0999999996</v>
       </c>
-      <c r="EP2" s="1">
-        <v>255</v>
-      </c>
-      <c r="EQ2" s="1">
-        <v>137700</v>
-      </c>
       <c r="ER2" s="1">
-        <v>3755</v>
+        <v>10600961.880000001</v>
       </c>
       <c r="ES2" s="1">
-        <v>1.5</v>
+        <v>2928900</v>
       </c>
       <c r="ET2" s="1">
-        <v>1436287.5</v>
+        <v>4192172.79</v>
       </c>
       <c r="EU2" s="1">
-        <v>1573987.5</v>
+        <v>2426655.21</v>
       </c>
       <c r="EV2" s="1">
-        <v>0.1</v>
+        <v>4081186.72</v>
       </c>
       <c r="EW2" s="1">
-        <v>157398.75</v>
+        <v>10309822.9</v>
       </c>
       <c r="EX2" s="1">
-        <v>1800</v>
+        <v>1.25</v>
       </c>
       <c r="EY2" s="1">
-        <v>72000</v>
+        <v>1.25</v>
       </c>
       <c r="EZ2" s="1">
-        <v>16</v>
+        <v>19991156.359999999</v>
       </c>
       <c r="FA2" s="1">
+        <v>31963381.23</v>
+      </c>
+      <c r="FB2" s="1">
+        <v>2785278</v>
+      </c>
+      <c r="FC2" s="1">
+        <v>696319.5</v>
+      </c>
+      <c r="FD2" s="1">
+        <v>3481597.5</v>
+      </c>
+      <c r="FE2" s="1">
+        <v>24726.959999999999</v>
+      </c>
+      <c r="FF2" s="1">
+        <v>14230.2</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="FH2" s="1">
+        <v>55144.7</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>64293.08</v>
+      </c>
+      <c r="FJ2" s="1">
+        <v>-14.23</v>
+      </c>
+      <c r="FK2" s="1">
+        <v>2379</v>
+      </c>
+      <c r="FL2" s="1">
+        <v>24971792.039999999</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>739</v>
+      </c>
+      <c r="FN2" s="1">
+        <v>-6760652.8200000031</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>7390.16</v>
+      </c>
+      <c r="FP2" s="1">
+        <v>9271.75</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>-16820313.609999999</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>1390825.609999992</v>
+      </c>
+      <c r="FS2" s="1">
+        <v>2</v>
+      </c>
+      <c r="FT2" s="1">
+        <v>8939414.8600000013</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>3481597.5</v>
+      </c>
+      <c r="FV2" s="1">
         <v>8</v>
       </c>
-      <c r="FB2" s="1">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="FC2" s="1">
-        <v>8</v>
-      </c>
-      <c r="FD2" s="1">
-        <v>626297.94999999995</v>
-      </c>
-      <c r="FE2" s="1">
-        <v>380</v>
-      </c>
-      <c r="FF2" s="1">
-        <v>2040</v>
-      </c>
-      <c r="FG2" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="FH2" s="1">
-        <v>1584508.8</v>
-      </c>
-      <c r="FI2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="FJ2" s="1">
-        <v>40</v>
-      </c>
-      <c r="FK2" s="1">
-        <v>14</v>
-      </c>
-      <c r="FL2" s="1">
-        <v>52570</v>
-      </c>
-      <c r="FM2" s="1">
-        <v>210280</v>
-      </c>
-      <c r="FN2" s="1">
-        <v>15553350.189999999</v>
-      </c>
-      <c r="FO2" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="FP2" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="FQ2" s="1">
-        <v>61842708.860000007</v>
-      </c>
-      <c r="FR2" s="1">
-        <v>19991156.359999999</v>
-      </c>
-      <c r="FS2" s="1">
-        <v>81833865.219999999</v>
-      </c>
-      <c r="FT2" s="1">
-        <v>31963381.23</v>
-      </c>
-      <c r="FU2" s="1">
-        <v>113797246.45</v>
-      </c>
-      <c r="FV2" s="1">
-        <v>116447731.95</v>
-      </c>
       <c r="FW2" s="1">
-        <v>31804.09</v>
+        <v>93064</v>
       </c>
       <c r="FX2" s="1">
-        <v>47706.14</v>
+        <v>540</v>
       </c>
       <c r="FY2" s="1">
-        <v>3118</v>
+        <v>10</v>
       </c>
       <c r="FZ2" s="1">
-        <v>44914.559999999998</v>
+        <v>120</v>
       </c>
       <c r="GA2" s="1">
-        <v>2566.06</v>
+        <v>0.96</v>
       </c>
       <c r="GB2" s="1">
-        <v>3849.09</v>
-      </c>
-      <c r="GC2" s="1">
-        <v>148747744.52000001</v>
-      </c>
-      <c r="GD2" s="1">
-        <v>172880183.75040001</v>
-      </c>
-      <c r="GE2" s="1">
-        <v>321627928.27039999</v>
-      </c>
-      <c r="GF2" s="1">
-        <v>2785278</v>
-      </c>
-      <c r="GG2" s="1">
-        <v>696319.5</v>
-      </c>
-      <c r="GH2" s="1">
-        <v>3481597.5</v>
-      </c>
-      <c r="GI2" s="1">
-        <v>214423554.59999999</v>
-      </c>
-      <c r="GJ2" s="1">
-        <v>107204373.67</v>
-      </c>
-      <c r="GK2" s="1">
-        <v>21440874.73</v>
-      </c>
-      <c r="GL2" s="1">
-        <v>85763498.939999998</v>
-      </c>
-      <c r="GM2" s="1">
-        <v>3481597.5</v>
-      </c>
-      <c r="GN2" s="1">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="GO2" s="1">
-        <v>8</v>
-      </c>
-      <c r="GP2" s="1">
-        <v>93064</v>
-      </c>
-      <c r="GQ2" s="1">
-        <v>540</v>
-      </c>
-      <c r="GR2" s="1">
-        <v>10</v>
-      </c>
-      <c r="GS2" s="1">
-        <v>120</v>
-      </c>
-      <c r="GT2" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="GU2" s="1">
         <v>3</v>
       </c>
-      <c r="GV2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>207</v>
+      <c r="GC2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3ekonom/output_treg.xlsx
+++ b/3ekonom/output_treg.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreyA\Desktop\Сессия\DIPLOM\3ekonom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9592A9-E7BB-4D5E-AA5B-B68E8F15D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BA20F0-8EC2-4B93-9A00-E98A25EAE8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>cars0</t>
   </si>
@@ -46,6 +46,126 @@
     <t>N_rr</t>
   </si>
   <si>
+    <t>workers_to_1_do_rec0</t>
+  </si>
+  <si>
+    <t>workers_to_2_do_rec0</t>
+  </si>
+  <si>
+    <t>workers_TR_do_rec0</t>
+  </si>
+  <si>
+    <t>workers_to_10</t>
+  </si>
+  <si>
+    <t>workers_to_20</t>
+  </si>
+  <si>
+    <t>workers_TR0</t>
+  </si>
+  <si>
+    <t>workers_to_1_do_rec1</t>
+  </si>
+  <si>
+    <t>workers_to_2_do_rec1</t>
+  </si>
+  <si>
+    <t>workers_TR_do_rec1</t>
+  </si>
+  <si>
+    <t>workers_to_11</t>
+  </si>
+  <si>
+    <t>workers_to_21</t>
+  </si>
+  <si>
+    <t>workers_TR1</t>
+  </si>
+  <si>
+    <t>workers_to_1_do_rec2</t>
+  </si>
+  <si>
+    <t>workers_to_2_do_rec2</t>
+  </si>
+  <si>
+    <t>workers_TR_do_rec2</t>
+  </si>
+  <si>
+    <t>workers_to_12</t>
+  </si>
+  <si>
+    <t>workers_to_22</t>
+  </si>
+  <si>
+    <t>workers_TR2</t>
+  </si>
+  <si>
+    <t>workers_to_1_do_rec3</t>
+  </si>
+  <si>
+    <t>workers_to_2_do_rec3</t>
+  </si>
+  <si>
+    <t>workers_TR_do_rec3</t>
+  </si>
+  <si>
+    <t>workers_to_13</t>
+  </si>
+  <si>
+    <t>workers_to_23</t>
+  </si>
+  <si>
+    <t>workers_TR3</t>
+  </si>
+  <si>
+    <t>workers_to_1_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_2_do_rec</t>
+  </si>
+  <si>
+    <t>workers_TR_do_rec</t>
+  </si>
+  <si>
+    <t>workers_all_do_rec</t>
+  </si>
+  <si>
+    <t>workers_to_1</t>
+  </si>
+  <si>
+    <t>workers_to_2</t>
+  </si>
+  <si>
+    <t>workers_TR</t>
+  </si>
+  <si>
+    <t>workers_all</t>
+  </si>
+  <si>
+    <t>workers_raz_do_rec0</t>
+  </si>
+  <si>
+    <t>workers_raz0</t>
+  </si>
+  <si>
+    <t>workers_raz_do_rec1</t>
+  </si>
+  <si>
+    <t>workers_raz1</t>
+  </si>
+  <si>
+    <t>workers_raz_do_rec2</t>
+  </si>
+  <si>
+    <t>workers_raz2</t>
+  </si>
+  <si>
+    <t>workers_raz_do_rec3</t>
+  </si>
+  <si>
+    <t>workers_raz3</t>
+  </si>
+  <si>
     <t>Lg_all_do_rec</t>
   </si>
   <si>
@@ -496,7 +616,13 @@
     <t>zatrati_na_new_oborud</t>
   </si>
   <si>
-    <t>Z_mont_dem_trans</t>
+    <t>Z_demont_oborud</t>
+  </si>
+  <si>
+    <t>Z_mont_oborud</t>
+  </si>
+  <si>
+    <t>Z_trans_oborud</t>
   </si>
   <si>
     <t>zatrati_na_new_oborud_with_mont</t>
@@ -933,15 +1059,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GD2"/>
+  <dimension ref="A1:HT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:L19"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:186" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:228" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1471,594 +1597,849 @@
         <v>175</v>
       </c>
       <c r="FU1" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="FV1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FW1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FX1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="FY1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="FZ1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="GA1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="GB1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="GC1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="GD1" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>201</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:186" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:228" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="E2" s="1">
-        <v>6</v>
+        <f>SUM(J26:M26)</f>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <f>SUM(J27:M27)</f>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>24</v>
+        <f>SUM(J28:M28)</f>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>40</v>
       </c>
       <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>4</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1">
+        <v>15</v>
+      </c>
+      <c r="X2" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>46</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>19</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>26</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>17</v>
+      </c>
+      <c r="AW2" s="1">
         <v>7904529.1899999985</v>
       </c>
-      <c r="J2" s="1">
+      <c r="AX2" s="1">
         <v>358</v>
       </c>
-      <c r="K2" s="1">
-        <v>48667.46</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="AY2" s="1">
         <v>13446.15</v>
       </c>
-      <c r="M2" s="1">
-        <v>19245.650000000001</v>
-      </c>
-      <c r="N2" s="1">
-        <v>81359.260000000009</v>
-      </c>
-      <c r="O2" s="1">
-        <v>13403894.5</v>
-      </c>
-      <c r="P2" s="1">
-        <v>3703311.74</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>5300598.43</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="AZ2" s="1">
+        <v>18346.240000000002</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>46765.25</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>78557.64</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>3659826.89</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>5187289.28</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>13032773.699999999</v>
+      </c>
+      <c r="BF2" s="1">
         <v>11202.16</v>
       </c>
-      <c r="S2" s="1">
+      <c r="BG2" s="1">
         <v>17797.830000000002</v>
       </c>
-      <c r="T2" s="1">
+      <c r="BH2" s="1">
         <v>44914.559999999998</v>
       </c>
-      <c r="U2" s="1">
+      <c r="BI2" s="1">
         <v>73914.55</v>
       </c>
-      <c r="V2" s="1">
-        <v>3068271.62</v>
-      </c>
-      <c r="W2" s="1">
-        <v>5160267.2300000004</v>
-      </c>
-      <c r="X2" s="1">
-        <v>13035777.32</v>
-      </c>
-      <c r="Y2" s="1">
+      <c r="BJ2" s="1">
+        <v>3116328.89</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>5193157.62</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>12948328.67</v>
+      </c>
+      <c r="BM2" s="1">
         <v>365</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="BN2" s="1">
         <v>118</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="BO2" s="1">
         <v>44</v>
       </c>
-      <c r="AB2" s="1">
-        <v>2905277.63</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>802688.26</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>1148898.18</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>665044.09</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>1118481.57</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>2825488.68</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>16309172.130000001</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>4506000</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>6449496.6099999994</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>4892751.6399999997</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>1351800</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>1934848.98</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>21201923.77</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>5857800</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>8384345.5899999999</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>35444069.359999999</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>3733315.71</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>6278748.8000000007</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>15861266</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>1119994.71</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>1883624.64</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>4758379.8</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>4853310.42</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>8162373.4400000004</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>20619645.800000001</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>33635329.659999996</v>
-      </c>
-      <c r="BB2" s="1">
+      <c r="BP2" s="1">
+        <v>793262.97</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>1124338.56</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>2824837.65</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>675460.45</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>1125610.52</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>2806534.29</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>4453089.8600000003</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>6311627.8399999999</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>15857611.35</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>1335926.96</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>1893488.35</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>4757283.41</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>5789016.8200000003</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>8205116.1899999985</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>20614894.760000002</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>34609027.770000003</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>3791789.34</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>6318768.1400000006</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>15754862.960000001</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>1137536.8</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>1895630.44</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>4726458.8899999997</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>4929326.1399999997</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>8214398.5800000001</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>20481321.850000001</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>33625046.57</v>
+      </c>
+      <c r="CP2" s="1">
         <v>76.599999999999994</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="CQ2" s="1">
         <v>80.400000000000006</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="CR2" s="1">
         <v>85.6</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="CS2" s="1">
         <v>91.25</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>82.48</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>7</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>2</v>
+      </c>
+      <c r="DC2" s="1">
+        <v>85.68</v>
+      </c>
+      <c r="DD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="1">
+        <v>11</v>
+      </c>
+      <c r="DF2" s="1">
+        <v>15</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>4</v>
+      </c>
+      <c r="DH2" s="1">
+        <v>84.45</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="DK2" s="1">
+        <v>6</v>
+      </c>
+      <c r="DL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>84.3</v>
+      </c>
+      <c r="DN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="1">
+        <v>4</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>88.42</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>4</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>13</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>13</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>87.36</v>
+      </c>
+      <c r="DX2" s="1">
+        <v>2200</v>
+      </c>
+      <c r="DY2" s="1">
+        <v>2900</v>
+      </c>
+      <c r="DZ2" s="1">
+        <v>1674445.67</v>
+      </c>
+      <c r="EA2" s="1">
+        <v>2207223.84</v>
+      </c>
+      <c r="EB2" s="1">
+        <v>1789850.3</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>2359348.13</v>
+      </c>
+      <c r="ED2" s="1">
+        <v>761111.67</v>
+      </c>
+      <c r="EE2" s="1">
+        <v>813568.32000000007</v>
+      </c>
+      <c r="EF2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>1217778.67</v>
+      </c>
+      <c r="EH2" s="1">
+        <v>1301709.31</v>
+      </c>
+      <c r="EI2" s="1">
         <v>1</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="EJ2" s="1">
+        <v>1650</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>1808401.33</v>
+      </c>
+      <c r="EL2" s="1">
+        <v>1933038.33</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>3050</v>
+      </c>
+      <c r="EN2" s="1">
+        <v>4050</v>
+      </c>
+      <c r="EO2" s="1">
+        <v>7505927.3899999997</v>
+      </c>
+      <c r="EP2" s="1">
+        <v>9966887.1899999995</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>8318614.9000000004</v>
+      </c>
+      <c r="ER2" s="1">
+        <v>11046029.619999999</v>
+      </c>
+      <c r="ES2" s="1">
+        <v>2460959.7999999998</v>
+      </c>
+      <c r="ET2" s="1">
+        <v>2727414.72</v>
+      </c>
+      <c r="EU2" s="1">
+        <v>2300</v>
+      </c>
+      <c r="EV2" s="1">
+        <v>5660207.54</v>
+      </c>
+      <c r="EW2" s="1">
+        <v>6273053.8600000003</v>
+      </c>
+      <c r="EX2" s="1">
         <v>1</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="EY2" s="1">
+        <v>2300</v>
+      </c>
+      <c r="EZ2" s="1">
+        <v>8150698.8600000003</v>
+      </c>
+      <c r="FA2" s="1">
+        <v>9033197.5500000007</v>
+      </c>
+      <c r="FB2" s="1">
+        <v>3050</v>
+      </c>
+      <c r="FC2" s="1">
+        <v>4050</v>
+      </c>
+      <c r="FD2" s="1">
+        <v>9466648.5600000005</v>
+      </c>
+      <c r="FE2" s="1">
+        <v>12570467.76</v>
+      </c>
+      <c r="FF2" s="1">
+        <v>11264557.68</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>14957855.279999999</v>
+      </c>
+      <c r="FH2" s="1">
+        <v>3103819.2</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>3693297.6</v>
+      </c>
+      <c r="FJ2" s="1">
+        <v>2300</v>
+      </c>
+      <c r="FK2" s="1">
+        <v>7138784.1600000001</v>
+      </c>
+      <c r="FL2" s="1">
+        <v>8494584.4800000004</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="FN2" s="1">
+        <v>2300</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>11307834.109999999</v>
+      </c>
+      <c r="FP2" s="1">
+        <v>13455421.82</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>3050</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>4050</v>
+      </c>
+      <c r="FS2" s="1">
+        <v>4814847.49</v>
+      </c>
+      <c r="FT2" s="1">
+        <v>6393486.0099999998</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>5200659.37</v>
+      </c>
+      <c r="FV2" s="1">
+        <v>6905793.5899999999</v>
+      </c>
+      <c r="FW2" s="1">
+        <v>1578638.52</v>
+      </c>
+      <c r="FX2" s="1">
+        <v>1705134.22</v>
+      </c>
+      <c r="FY2" s="1">
+        <v>2300</v>
+      </c>
+      <c r="FZ2" s="1">
+        <v>3630868.6</v>
+      </c>
+      <c r="GA2" s="1">
+        <v>3921808.71</v>
+      </c>
+      <c r="GB2" s="1">
         <v>1</v>
       </c>
-      <c r="BI2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>83.46</v>
-      </c>
-      <c r="BK2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO2" s="1">
-        <v>83.46</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>83.46</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="1">
+      <c r="GC2" s="1">
+        <v>2300</v>
+      </c>
+      <c r="GD2" s="1">
+        <v>5228450.78</v>
+      </c>
+      <c r="GE2" s="1">
+        <v>5647404.54</v>
+      </c>
+      <c r="GF2" s="1">
+        <v>2894508.41</v>
+      </c>
+      <c r="GG2" s="1">
+        <v>4102558.09</v>
+      </c>
+      <c r="GH2" s="1">
+        <v>10307447.380000001</v>
+      </c>
+      <c r="GI2" s="1">
+        <v>2464663.0699999998</v>
+      </c>
+      <c r="GJ2" s="1">
+        <v>4107199.29</v>
+      </c>
+      <c r="GK2" s="1">
+        <v>10240660.93</v>
+      </c>
+      <c r="GL2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="GM2" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="GN2" s="1">
+        <v>19991156.359999999</v>
+      </c>
+      <c r="GO2" s="1">
+        <v>30069062.239999998</v>
+      </c>
+      <c r="GP2" s="1">
+        <v>3506078</v>
+      </c>
+      <c r="GQ2" s="1">
+        <v>175303.9</v>
+      </c>
+      <c r="GR2" s="1">
+        <v>525911.69999999995</v>
+      </c>
+      <c r="GS2" s="1">
+        <v>175303.9</v>
+      </c>
+      <c r="GT2" s="1">
+        <v>4382597.5</v>
+      </c>
+      <c r="GU2" s="1">
+        <v>13708.06</v>
+      </c>
+      <c r="GV2" s="1">
+        <v>13320.66</v>
+      </c>
+      <c r="GW2" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="GX2" s="1">
+        <v>49202.42</v>
+      </c>
+      <c r="GY2" s="1">
+        <v>46657.47</v>
+      </c>
+      <c r="GZ2" s="1">
+        <v>5.45</v>
+      </c>
+      <c r="HA2" s="1">
+        <v>2550</v>
+      </c>
+      <c r="HB2" s="1">
+        <v>987869.99999999907</v>
+      </c>
+      <c r="HC2" s="1">
+        <v>1020</v>
+      </c>
+      <c r="HD2" s="1">
+        <v>2595848.9999999972</v>
+      </c>
+      <c r="HE2" s="1">
+        <v>9496.5</v>
+      </c>
+      <c r="HF2" s="1">
+        <v>9036.6299999999992</v>
+      </c>
+      <c r="HG2" s="1">
+        <v>4110968.71</v>
+      </c>
+      <c r="HH2" s="1">
+        <v>7694687.7099999962</v>
+      </c>
+      <c r="HI2" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="HJ2" s="1">
+        <v>8939414.8600000013</v>
+      </c>
+      <c r="HK2" s="1">
+        <v>4382597.5</v>
+      </c>
+      <c r="HL2" s="1">
+        <v>8</v>
+      </c>
+      <c r="HM2" s="1">
+        <v>93064</v>
+      </c>
+      <c r="HN2" s="1">
+        <v>540</v>
+      </c>
+      <c r="HO2" s="1">
+        <v>29</v>
+      </c>
+      <c r="HP2" s="1">
+        <v>120</v>
+      </c>
+      <c r="HQ2" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="HR2" s="1">
         <v>3</v>
       </c>
-      <c r="BW2" s="1">
-        <v>3</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>83</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB2" s="1">
-        <v>6</v>
-      </c>
-      <c r="CC2" s="1">
-        <v>4</v>
-      </c>
-      <c r="CD2" s="1">
-        <v>87.86</v>
-      </c>
-      <c r="CE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>14</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>10</v>
-      </c>
-      <c r="CI2" s="1">
-        <v>87.95</v>
-      </c>
-      <c r="CJ2" s="1">
-        <v>2200</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>2900</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>1674445.67</v>
-      </c>
-      <c r="CM2" s="1">
-        <v>2207223.84</v>
-      </c>
-      <c r="CN2" s="1">
-        <v>1789850.3</v>
-      </c>
-      <c r="CO2" s="1">
-        <v>2359348.13</v>
-      </c>
-      <c r="CP2" s="1">
-        <v>761111.67</v>
-      </c>
-      <c r="CQ2" s="1">
-        <v>813568.32000000007</v>
-      </c>
-      <c r="CR2" s="1">
-        <v>1600</v>
-      </c>
-      <c r="CS2" s="1">
-        <v>1217778.67</v>
-      </c>
-      <c r="CT2" s="1">
-        <v>1301709.31</v>
-      </c>
-      <c r="CU2" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV2" s="1">
-        <v>1650</v>
-      </c>
-      <c r="CW2" s="1">
-        <v>1962241.02</v>
-      </c>
-      <c r="CX2" s="1">
-        <v>2097480.8199999998</v>
-      </c>
-      <c r="CY2" s="1">
-        <v>3050</v>
-      </c>
-      <c r="CZ2" s="1">
-        <v>4050</v>
-      </c>
-      <c r="DA2" s="1">
-        <v>7505927.3899999997</v>
-      </c>
-      <c r="DB2" s="1">
-        <v>9966887.1899999995</v>
-      </c>
-      <c r="DC2" s="1">
-        <v>8318614.9000000004</v>
-      </c>
-      <c r="DD2" s="1">
-        <v>11046029.619999999</v>
-      </c>
-      <c r="DE2" s="1">
-        <v>2460959.7999999998</v>
-      </c>
-      <c r="DF2" s="1">
-        <v>2727414.72</v>
-      </c>
-      <c r="DG2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="DH2" s="1">
-        <v>5660207.54</v>
-      </c>
-      <c r="DI2" s="1">
-        <v>6273053.8600000003</v>
-      </c>
-      <c r="DJ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="DL2" s="1">
-        <v>8844074.2799999993</v>
-      </c>
-      <c r="DM2" s="1">
-        <v>9801646.6500000004</v>
-      </c>
-      <c r="DN2" s="1">
-        <v>3050</v>
-      </c>
-      <c r="DO2" s="1">
-        <v>4050</v>
-      </c>
-      <c r="DP2" s="1">
-        <v>9466648.5600000005</v>
-      </c>
-      <c r="DQ2" s="1">
-        <v>12570467.76</v>
-      </c>
-      <c r="DR2" s="1">
-        <v>11264557.68</v>
-      </c>
-      <c r="DS2" s="1">
-        <v>14957855.279999999</v>
-      </c>
-      <c r="DT2" s="1">
-        <v>3103819.2</v>
-      </c>
-      <c r="DU2" s="1">
-        <v>3693297.6</v>
-      </c>
-      <c r="DV2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="DW2" s="1">
-        <v>7138784.1600000001</v>
-      </c>
-      <c r="DX2" s="1">
-        <v>8494584.4800000004</v>
-      </c>
-      <c r="DY2" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="DZ2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="EA2" s="1">
-        <v>11712067.76</v>
-      </c>
-      <c r="EB2" s="1">
-        <v>13936427.66</v>
-      </c>
-      <c r="EC2" s="1">
-        <v>3050</v>
-      </c>
-      <c r="ED2" s="1">
-        <v>4050</v>
-      </c>
-      <c r="EE2" s="1">
-        <v>4814847.49</v>
-      </c>
-      <c r="EF2" s="1">
-        <v>6393486.0099999998</v>
-      </c>
-      <c r="EG2" s="1">
-        <v>5200659.37</v>
-      </c>
-      <c r="EH2" s="1">
-        <v>6905793.5899999999</v>
-      </c>
-      <c r="EI2" s="1">
-        <v>1578638.52</v>
-      </c>
-      <c r="EJ2" s="1">
-        <v>1705134.22</v>
-      </c>
-      <c r="EK2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="EL2" s="1">
-        <v>3630868.6</v>
-      </c>
-      <c r="EM2" s="1">
-        <v>3921808.71</v>
-      </c>
-      <c r="EN2" s="1">
-        <v>1</v>
-      </c>
-      <c r="EO2" s="1">
-        <v>2300</v>
-      </c>
-      <c r="EP2" s="1">
-        <v>5673232.1799999997</v>
-      </c>
-      <c r="EQ2" s="1">
-        <v>6127826.0999999996</v>
-      </c>
-      <c r="ER2" s="1">
-        <v>10600961.880000001</v>
-      </c>
-      <c r="ES2" s="1">
-        <v>2928900</v>
-      </c>
-      <c r="ET2" s="1">
-        <v>4192172.79</v>
-      </c>
-      <c r="EU2" s="1">
-        <v>2426655.21</v>
-      </c>
-      <c r="EV2" s="1">
-        <v>4081186.72</v>
-      </c>
-      <c r="EW2" s="1">
-        <v>10309822.9</v>
-      </c>
-      <c r="EX2" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="EY2" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="EZ2" s="1">
-        <v>19991156.359999999</v>
-      </c>
-      <c r="FA2" s="1">
-        <v>31963381.23</v>
-      </c>
-      <c r="FB2" s="1">
-        <v>2785278</v>
-      </c>
-      <c r="FC2" s="1">
-        <v>696319.5</v>
-      </c>
-      <c r="FD2" s="1">
-        <v>3481597.5</v>
-      </c>
-      <c r="FE2" s="1">
-        <v>24726.959999999999</v>
-      </c>
-      <c r="FF2" s="1">
-        <v>14230.2</v>
-      </c>
-      <c r="FG2" s="1">
-        <v>73.760000000000005</v>
-      </c>
-      <c r="FH2" s="1">
-        <v>55144.7</v>
-      </c>
-      <c r="FI2" s="1">
-        <v>64293.08</v>
-      </c>
-      <c r="FJ2" s="1">
-        <v>-14.23</v>
-      </c>
-      <c r="FK2" s="1">
-        <v>2379</v>
-      </c>
-      <c r="FL2" s="1">
-        <v>24971792.039999999</v>
-      </c>
-      <c r="FM2" s="1">
-        <v>739</v>
-      </c>
-      <c r="FN2" s="1">
-        <v>-6760652.8200000031</v>
-      </c>
-      <c r="FO2" s="1">
-        <v>7390.16</v>
-      </c>
-      <c r="FP2" s="1">
-        <v>9271.75</v>
-      </c>
-      <c r="FQ2" s="1">
-        <v>-16820313.609999999</v>
-      </c>
-      <c r="FR2" s="1">
-        <v>1390825.609999992</v>
-      </c>
-      <c r="FS2" s="1">
-        <v>2</v>
-      </c>
-      <c r="FT2" s="1">
-        <v>8939414.8600000013</v>
-      </c>
-      <c r="FU2" s="1">
-        <v>3481597.5</v>
-      </c>
-      <c r="FV2" s="1">
-        <v>8</v>
-      </c>
-      <c r="FW2" s="1">
-        <v>93064</v>
-      </c>
-      <c r="FX2" s="1">
-        <v>540</v>
-      </c>
-      <c r="FY2" s="1">
-        <v>10</v>
-      </c>
-      <c r="FZ2" s="1">
-        <v>120</v>
-      </c>
-      <c r="GA2" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="GB2" s="1">
-        <v>3</v>
-      </c>
-      <c r="GC2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>190</v>
+      <c r="HS2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HT2" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
